--- a/engineering/files/lookuptable.xlsx
+++ b/engineering/files/lookuptable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tod21\Documents\01-Aerospace TU Delft\Bsc3\DSE\Code\DSE25\engineering\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E3CDDB-9784-46E6-8819-1B0CCC6758CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFDE3F4-201D-46B1-BDF4-4B3E0ADBFC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Python</t>
   </si>
@@ -51,36 +50,12 @@
     <t>Sustainer/Payload module/Payload-OD</t>
   </si>
   <si>
-    <t>Sustainer/Payload module/Payload-module-length</t>
-  </si>
-  <si>
     <t>Sustainer/Payload module/Nose cone/Haack coefficient</t>
   </si>
   <si>
     <t>Sustainer/Payload module/Nose cone/Nose cone length</t>
   </si>
   <si>
-    <t>Sustainer/Payload module/Nose cone/External nose cone thickness</t>
-  </si>
-  <si>
-    <t>Sustainer/Motor module/Sustainer-OD</t>
-  </si>
-  <si>
-    <t>Sustainer/Motor module/Motor-module-length</t>
-  </si>
-  <si>
-    <t>Sustainer/Booster/Motor module/Sustainer-OD</t>
-  </si>
-  <si>
-    <t>Sustainer/Booster/Motor module/Motor-module-length</t>
-  </si>
-  <si>
-    <t>Booster/Booster-length</t>
-  </si>
-  <si>
-    <t>Booster/Booster-OD</t>
-  </si>
-  <si>
     <t>Booster/Motor module/Motor/Casing-OD</t>
   </si>
   <si>
@@ -90,12 +65,6 @@
     <t>Booster/Motor module/Motor/Casing length</t>
   </si>
   <si>
-    <t>Booster/Booster shoulder/Booster shoulder height</t>
-  </si>
-  <si>
-    <t>Booster/Motor module/Motor/Grain height</t>
-  </si>
-  <si>
     <t>Sustainer/Motor module/Motor/Casing-OD</t>
   </si>
   <si>
@@ -108,13 +77,67 @@
     <t>Sustainer/Motor module/Motor/Grain height</t>
   </si>
   <si>
-    <t>Booster/Payload module/Payload shell/Payload shell height</t>
-  </si>
-  <si>
-    <t>Booster/Payload module/Avionics bay/Avionics bay height</t>
-  </si>
-  <si>
-    <t>Booster/Payload moduel/Recovery bay/Recovery bay height</t>
+    <t>Sustainer/Payload module/External nose cone thickness</t>
+  </si>
+  <si>
+    <t>Sustainer/Payload module/Payload shell/Payload shell height</t>
+  </si>
+  <si>
+    <t>Sustainer/Payload module/Payload shell/Payload shell thickness</t>
+  </si>
+  <si>
+    <t>Sustainer/Payload module/Avionics bay/Avionics bay height</t>
+  </si>
+  <si>
+    <t>Sustainer/Payload module/Avionics bay/Avionics bay shell thickness</t>
+  </si>
+  <si>
+    <t>Sustainer/Payload module/Recovery bay/Recovery bay shell thickness</t>
+  </si>
+  <si>
+    <t>Sustainer/Payload module/Recovery bay/Recovery bay height</t>
+  </si>
+  <si>
+    <t>Sustainer/Motor module/Fins/Root chord</t>
+  </si>
+  <si>
+    <t>Sustainer/Motor module/Fins/Tip chord</t>
+  </si>
+  <si>
+    <t>Sustainer/Motor module/Fins/Fin span</t>
+  </si>
+  <si>
+    <t>Height of fin</t>
+  </si>
+  <si>
+    <t>Sustainer/Motor module/Fins/Fin sweep</t>
+  </si>
+  <si>
+    <t>Sustainer/Motor module/Fins/Fin thickness</t>
+  </si>
+  <si>
+    <t>Booster/Motor module/Motor/Casing height</t>
+  </si>
+  <si>
+    <t>Booster/Motor module/Fins/Root chord</t>
+  </si>
+  <si>
+    <t>Booster/Motor module/Fins/Tip chord</t>
+  </si>
+  <si>
+    <t>Booster/Motor module/Fins/Fin span</t>
+  </si>
+  <si>
+    <t>Booster/Motor module/Fins/Fin thickness</t>
+  </si>
+  <si>
+    <t>Booster/Motor module/Fins/Fin sweep</t>
+  </si>
+  <si>
+    <t>Booster/Booster shoulder height</t>
+  </si>
+  <si>
+    <t>Booster/Booster shoulder thickness</t>
   </si>
 </sst>
 </file>
@@ -130,18 +153,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,7 +175,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -462,123 +479,161 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>17</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>3</v>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
-    <sortCondition ref="B2:B24"/>
+    <sortCondition descending="1" ref="B2:B24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/engineering/files/lookuptable.xlsx
+++ b/engineering/files/lookuptable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tod21\Documents\01-Aerospace TU Delft\Bsc3\DSE\Code\DSE25\engineering\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauro\PycharmProjects\DSE25\engineering\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFDE3F4-201D-46B1-BDF4-4B3E0ADBFC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0767C7F-95F3-4F95-B4F4-9D28CC894B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Python</t>
   </si>
@@ -138,6 +138,63 @@
   </si>
   <si>
     <t>Booster/Booster shoulder thickness</t>
+  </si>
+  <si>
+    <t>rocket.stage2.nosecone.length</t>
+  </si>
+  <si>
+    <t>rocket.stage2.fins.span</t>
+  </si>
+  <si>
+    <t>rocket.stage2.fins.sweep</t>
+  </si>
+  <si>
+    <t>rocket.stage2.fins.thickness</t>
+  </si>
+  <si>
+    <t>rocket.stage2.nosecone.thickness</t>
+  </si>
+  <si>
+    <t>rocket.stage2.recovery.length</t>
+  </si>
+  <si>
+    <t>rocket.stage2.engine.chamber_length</t>
+  </si>
+  <si>
+    <t>rocket.stage2.fins.chord_root</t>
+  </si>
+  <si>
+    <t>rocket.stage2.fins.chord_tip</t>
+  </si>
+  <si>
+    <t>rocket.stage1.fins.chord_root</t>
+  </si>
+  <si>
+    <t>rocket.stage1.fins.chord_tip</t>
+  </si>
+  <si>
+    <t>rocket.stage1.fins.span</t>
+  </si>
+  <si>
+    <t>rocket.stage1.fins.sweep</t>
+  </si>
+  <si>
+    <t>rocket.stage1.fins.thickness</t>
+  </si>
+  <si>
+    <t>rocket.stage1.shoulder.length</t>
+  </si>
+  <si>
+    <t>rocket.stage1.engine.chamber_length</t>
+  </si>
+  <si>
+    <t>rocket.stage2.nosecone.diameter</t>
+  </si>
+  <si>
+    <t>rocket.stage2.payload.length</t>
+  </si>
+  <si>
+    <t>rocket.stage2.engine.diameter</t>
   </si>
 </sst>
 </file>
@@ -173,9 +230,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,15 +515,16 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,156 +535,213 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>33</v>
       </c>
     </row>
